--- a/biology/Zoologie/Bruant_à_calotte_blanche/Bruant_à_calotte_blanche.xlsx
+++ b/biology/Zoologie/Bruant_à_calotte_blanche/Bruant_à_calotte_blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bruant_%C3%A0_calotte_blanche</t>
+          <t>Bruant_à_calotte_blanche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">  Emberiza leucocephalos
 Le Bruant à calotte blanche  est une espèce de passereaux appartenant à la famille des Emberizidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bruant_%C3%A0_calotte_blanche</t>
+          <t>Bruant_à_calotte_blanche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Emberiza leucocephalos a été décrite par le naturaliste allemand Samuel Gottlieb Gmelin en 1771 [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Emberiza leucocephalos a été décrite par le naturaliste allemand Samuel Gottlieb Gmelin en 1771 .
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bruant_%C3%A0_calotte_blanche</t>
+          <t>Bruant_à_calotte_blanche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout comme chez le Bruant jaune, le croupion est marron chez le mâle, la femelle et le jeune.
 Le mâle en plumage présente le vertex, les joues (bordées de noir) et la bavette blancs, le front noir, les lores, les sourcils, les traits oculaires, le menton, la gorge et la partie inférieure des joues marron.
